--- a/Repulsion de Cables.xlsx
+++ b/Repulsion de Cables.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>a</t>
   </si>
@@ -338,6 +338,21 @@
       </rPr>
       <t xml:space="preserve"> (dina)</t>
     </r>
+  </si>
+  <si>
+    <t>longitud de arco</t>
+  </si>
+  <si>
+    <t>distancia entre los cables</t>
+  </si>
+  <si>
+    <t>desviacion angular</t>
+  </si>
+  <si>
+    <t>altura medida</t>
+  </si>
+  <si>
+    <t>altura corregida</t>
   </si>
 </sst>
 </file>
@@ -643,7 +658,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$10:$G$18</c:f>
+              <c:f>Sheet1!$G$11:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -679,7 +694,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$10:$N$18</c:f>
+              <c:f>Sheet1!$N$11:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -723,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362061552"/>
-        <c:axId val="362067432"/>
+        <c:axId val="317949408"/>
+        <c:axId val="317976952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362061552"/>
+        <c:axId val="317949408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,12 +869,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362067432"/>
+        <c:crossAx val="317976952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362067432"/>
+        <c:axId val="317976952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362061552"/>
+        <c:crossAx val="317949408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1586,16 +1601,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1880,22 +1895,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" customWidth="1"/>
   </cols>
@@ -2032,555 +2049,578 @@
         <v>1.2566370614359173E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="5">
-        <f>ATAN((bp+(B10/100))/(a+d))</f>
-        <v>0.11556605173262757</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10-thp</f>
-        <v>8.7443840941042739E-4</v>
-      </c>
-      <c r="E10" s="5">
-        <f>(a+d)*TAN(theta+D10)-b</f>
-        <v>4.9787901020218461E-3</v>
-      </c>
-      <c r="F10" s="5">
-        <f>ATAN((b+E10)/(a+d))</f>
-        <v>9.5407953454015024E-2</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" ref="G10:G18" si="1">F10-theta</f>
-        <v>8.7443840941044126E-4</v>
-      </c>
-      <c r="H10" s="5">
-        <f>180*G10/PI()</f>
-        <v>5.0101630303351054E-2</v>
-      </c>
-      <c r="I10" s="5">
-        <f>D10-G10</f>
-        <v>-1.3877787807814457E-17</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" ref="J10:J18" si="2">d*F10</f>
-        <v>1.6457871970817592E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <f>2*d*SIN(F10/2)</f>
-        <v>1.6451630568434971E-2</v>
-      </c>
-      <c r="L10" s="5">
-        <f>100*(J10-K10)</f>
-        <v>6.2414023826208587E-4</v>
-      </c>
-      <c r="M10" s="8">
-        <f>(mu*L*A10^2)/(2*PI()*K10)</f>
-        <v>1.3980377145186509E-7</v>
-      </c>
-      <c r="N10" s="8">
-        <f>M10*10^5</f>
-        <v>1.3980377145186509E-2</v>
-      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
       <c r="C11" s="5">
-        <f>ATAN((bp+(B11/100))/(a+d))</f>
-        <v>0.11644031265366475</v>
+        <f t="shared" ref="C11:C19" si="1">ATAN((bp+(B11/100))/(a+d))</f>
+        <v>0.11556605173262757</v>
       </c>
       <c r="D11" s="5">
-        <f>C11-thp</f>
-        <v>1.7486993304476062E-3</v>
+        <f t="shared" ref="D11:D19" si="2">C11-thp</f>
+        <v>8.7443840941042739E-4</v>
       </c>
       <c r="E11" s="5">
-        <f>(a+d)*TAN(theta+D11)-b</f>
-        <v>9.9574027288368283E-3</v>
+        <f t="shared" ref="E11:E19" si="3">(a+d)*TAN(theta+D11)-b</f>
+        <v>4.9787901020218461E-3</v>
       </c>
       <c r="F11" s="5">
-        <f>ATAN((b+E11)/(a+d))</f>
-        <v>9.6282214375052189E-2</v>
+        <f t="shared" ref="F11:F19" si="4">ATAN((b+E11)/(a+d))</f>
+        <v>9.5407953454015024E-2</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="1"/>
-        <v>1.7486993304476062E-3</v>
+        <f t="shared" ref="G11:G19" si="5">F11-theta</f>
+        <v>8.7443840941044126E-4</v>
       </c>
       <c r="H11" s="5">
-        <f>180*G11/PI()</f>
-        <v>0.10019309127200073</v>
+        <f t="shared" ref="H11:H19" si="6">180*G11/PI()</f>
+        <v>5.0101630303351054E-2</v>
       </c>
       <c r="I11" s="5">
-        <f>D11-G11</f>
-        <v>0</v>
+        <f t="shared" ref="I11:I19" si="7">D11-G11</f>
+        <v>-1.3877787807814457E-17</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6608681979696501E-2</v>
+        <f t="shared" ref="J11:J19" si="8">d*F11</f>
+        <v>1.6457871970817592E-2</v>
       </c>
       <c r="K11" s="5">
-        <f>2*d*SIN(F11/2)</f>
-        <v>1.6602267436380842E-2</v>
+        <f t="shared" ref="K11:K19" si="9">2*d*SIN(F11/2)</f>
+        <v>1.6451630568434971E-2</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11:L18" si="3">100*(J11-K11)</f>
-        <v>6.4145433156595488E-4</v>
+        <f>100*(J11-K11)</f>
+        <v>6.2414023826208587E-4</v>
       </c>
       <c r="M11" s="8">
-        <f>(mu*L*A11^2)/(2*PI()*K11)</f>
-        <v>8.6584558736235066E-7</v>
+        <f t="shared" ref="M11:M19" si="10">(mu*L*A11^2)/(2*PI()*K11)</f>
+        <v>1.3980377145186509E-7</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" ref="N11:N18" si="4">M11*10^5</f>
-        <v>8.6584558736235065E-2</v>
+        <f>M11*10^5</f>
+        <v>1.3980377145186509E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="5">
-        <v>1.5</v>
-      </c>
       <c r="C12" s="5">
-        <f>ATAN((bp+(B12/100))/(a+d))</f>
-        <v>0.11731439480431888</v>
+        <f t="shared" si="1"/>
+        <v>0.11644031265366475</v>
       </c>
       <c r="D12" s="5">
-        <f>C12-thp</f>
-        <v>2.6227814811017325E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.7486993304476062E-3</v>
       </c>
       <c r="E12" s="5">
-        <f>(a+d)*TAN(theta+D12)-b</f>
-        <v>1.4935837889934356E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.9574027288368283E-3</v>
       </c>
       <c r="F12" s="5">
-        <f>ATAN((b+E12)/(a+d))</f>
-        <v>9.7156296525706301E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.6282214375052189E-2</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="1"/>
-        <v>2.6227814811017186E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.7486993304476062E-3</v>
       </c>
       <c r="H12" s="5">
-        <f>180*G12/PI()</f>
-        <v>0.15027430945219955</v>
+        <f t="shared" si="6"/>
+        <v>0.10019309127200073</v>
       </c>
       <c r="I12" s="5">
-        <f>D12-G12</f>
-        <v>1.3877787807814457E-17</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6759461150684336E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6608681979696501E-2</v>
       </c>
       <c r="K12" s="5">
-        <f>2*d*SIN(F12/2)</f>
-        <v>1.6752870330403069E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6602267436380842E-2</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="3"/>
-        <v>6.5908202812672845E-4</v>
+        <f t="shared" ref="L12:L19" si="11">100*(J12-K12)</f>
+        <v>6.4145433156595488E-4</v>
       </c>
       <c r="M12" s="8">
-        <f>(mu*L*A12^2)/(2*PI()*K12)</f>
-        <v>3.4322476606082917E-6</v>
+        <f t="shared" si="10"/>
+        <v>8.6584558736235066E-7</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="4"/>
-        <v>0.34322476606082919</v>
+        <f t="shared" ref="N12:N19" si="12">M12*10^5</f>
+        <v>8.6584558736235065E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C13" s="5">
-        <f>ATAN((bp+(B13/100))/(a+d))</f>
-        <v>0.1181882969041971</v>
+        <f t="shared" si="1"/>
+        <v>0.11731439480431888</v>
       </c>
       <c r="D13" s="5">
-        <f>C13-thp</f>
-        <v>3.496683580979959E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.6227814811017325E-3</v>
       </c>
       <c r="E13" s="5">
-        <f>(a+d)*TAN(theta+D13)-b</f>
-        <v>1.9914095594803283E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.4935837889934356E-2</v>
       </c>
       <c r="F13" s="5">
-        <f>ATAN((b+E13)/(a+d))</f>
-        <v>9.8030198625584541E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.7156296525706301E-2</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="1"/>
-        <v>3.496683580979959E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.6227814811017186E-3</v>
       </c>
       <c r="H13" s="5">
-        <f>180*G13/PI()</f>
-        <v>0.20034521148284287</v>
+        <f t="shared" si="6"/>
+        <v>0.15027430945219955</v>
       </c>
       <c r="I13" s="5">
-        <f>D13-G13</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.3877787807814457E-17</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6910209262913332E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6759461150684336E-2</v>
       </c>
       <c r="K13" s="5">
-        <f>2*d*SIN(F13/2)</f>
-        <v>1.6903439003087779E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6752870330403069E-2</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="3"/>
-        <v>6.7702598255531266E-4</v>
+        <f t="shared" si="11"/>
+        <v>6.5908202812672845E-4</v>
       </c>
       <c r="M13" s="8">
-        <f>(mu*L*A13^2)/(2*PI()*K13)</f>
-        <v>1.3606698610737466E-5</v>
+        <f t="shared" si="10"/>
+        <v>3.4322476606082917E-6</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="4"/>
-        <v>1.3606698610737467</v>
+        <f t="shared" si="12"/>
+        <v>0.34322476606082919</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="5">
-        <f>ATAN((bp+(B14/100))/(a+d))</f>
-        <v>0.12080891011972281</v>
+        <f t="shared" si="1"/>
+        <v>0.1181882969041971</v>
       </c>
       <c r="D14" s="5">
-        <f>C14-thp</f>
-        <v>6.1172967965056613E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.496683580979959E-3</v>
       </c>
       <c r="E14" s="5">
-        <f>(a+d)*TAN(theta+D14)-b</f>
-        <v>3.4847804066913679E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.9914095594803283E-2</v>
       </c>
       <c r="F14" s="5">
-        <f>ATAN((b+E14)/(a+d))</f>
-        <v>0.10065081184111023</v>
+        <f t="shared" si="4"/>
+        <v>9.8030198625584541E-2</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="1"/>
-        <v>6.1172967965056474E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.496683580979959E-3</v>
       </c>
       <c r="H14" s="5">
-        <f>180*G14/PI()</f>
-        <v>0.35049528846867239</v>
+        <f t="shared" si="6"/>
+        <v>0.20034521148284287</v>
       </c>
       <c r="I14" s="5">
-        <f>D14-G14</f>
-        <v>1.3877787807814457E-17</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7362265042591512E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6910209262913332E-2</v>
       </c>
       <c r="K14" s="5">
-        <f>2*d*SIN(F14/2)</f>
-        <v>1.7354937224014513E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6903439003087779E-2</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="3"/>
-        <v>7.3278185769992676E-4</v>
+        <f t="shared" si="11"/>
+        <v>6.7702598255531266E-4</v>
       </c>
       <c r="M14" s="8">
-        <f>(mu*L*A14^2)/(2*PI()*K14)</f>
-        <v>5.3010851501494927E-5</v>
+        <f t="shared" si="10"/>
+        <v>1.3606698610737466E-5</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="4"/>
-        <v>5.3010851501494924</v>
+        <f t="shared" si="12"/>
+        <v>1.3606698610737467</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C15" s="5">
-        <f>ATAN((bp+(B15/100))/(a+d))</f>
-        <v>0.12342785694155731</v>
+        <f t="shared" si="1"/>
+        <v>0.12080891011972281</v>
       </c>
       <c r="D15" s="5">
-        <f>C15-thp</f>
-        <v>8.7362436183401615E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.1172967965056613E-3</v>
       </c>
       <c r="E15" s="5">
-        <f>(a+d)*TAN(theta+D15)-b</f>
-        <v>4.9779915774491257E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.4847804066913679E-2</v>
       </c>
       <c r="F15" s="5">
-        <f>ATAN((b+E15)/(a+d))</f>
-        <v>0.10326975866294474</v>
+        <f t="shared" si="4"/>
+        <v>0.10065081184111023</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="1"/>
-        <v>8.7362436183401615E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.1172967965056474E-3</v>
       </c>
       <c r="H15" s="5">
-        <f>180*G15/PI()</f>
-        <v>0.50054988812899037</v>
+        <f t="shared" si="6"/>
+        <v>0.35049528846867239</v>
       </c>
       <c r="I15" s="5">
-        <f>D15-G15</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.3877787807814457E-17</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7814033369357968E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.7362265042591512E-2</v>
       </c>
       <c r="K15" s="5">
-        <f>2*d*SIN(F15/2)</f>
-        <v>1.7806118578401833E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.7354937224014513E-2</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="3"/>
-        <v>7.9147909561351482E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.3278185769992676E-4</v>
       </c>
       <c r="M15" s="8">
-        <f>(mu*L*A15^2)/(2*PI()*K15)</f>
-        <v>1.1625217426726754E-4</v>
+        <f t="shared" si="10"/>
+        <v>5.3010851501494927E-5</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="4"/>
-        <v>11.625217426726755</v>
+        <f t="shared" si="12"/>
+        <v>5.3010851501494924</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5">
-        <f>ATAN((bp+(B16/100))/(a+d))</f>
-        <v>0.12866061433216244</v>
+        <f t="shared" si="1"/>
+        <v>0.12342785694155731</v>
       </c>
       <c r="D16" s="5">
-        <f>C16-thp</f>
-        <v>1.3969001008945298E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.7362436183401615E-3</v>
       </c>
       <c r="E16" s="5">
-        <f>(a+d)*TAN(theta+D16)-b</f>
-        <v>7.9639349920329061E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.9779915774491257E-2</v>
       </c>
       <c r="F16" s="5">
-        <f>ATAN((b+E16)/(a+d))</f>
-        <v>0.10850251605354987</v>
+        <f t="shared" si="4"/>
+        <v>0.10326975866294474</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="1"/>
-        <v>1.3969001008945284E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.7362436183401615E-3</v>
       </c>
       <c r="H16" s="5">
-        <f>180*G16/PI()</f>
-        <v>0.80036480182655356</v>
+        <f t="shared" si="6"/>
+        <v>0.50054988812899037</v>
       </c>
       <c r="I16" s="5">
-        <f>D16-G16</f>
-        <v>1.3877787807814457E-17</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8716684019237352E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.7814033369357968E-2</v>
       </c>
       <c r="K16" s="5">
-        <f>2*d*SIN(F16/2)</f>
-        <v>1.8707504215967258E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.7806118578401833E-2</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="3"/>
-        <v>9.1798032700943222E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.9147909561351482E-4</v>
       </c>
       <c r="M16" s="8">
-        <f>(mu*L*A16^2)/(2*PI()*K16)</f>
-        <v>1.9671250411153405E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.1625217426726754E-4</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="4"/>
-        <v>19.671250411153405</v>
+        <f t="shared" si="12"/>
+        <v>11.625217426726755</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5">
-        <f>ATAN((bp+(B17/100))/(a+d))</f>
-        <v>0.13475653641157234</v>
+        <f t="shared" si="1"/>
+        <v>0.12866061433216244</v>
       </c>
       <c r="D17" s="5">
-        <f>C17-thp</f>
-        <v>2.0064923088355197E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3969001008945298E-2</v>
       </c>
       <c r="E17" s="5">
-        <f>(a+d)*TAN(theta+D17)-b</f>
-        <v>0.11446728791879557</v>
+        <f t="shared" si="3"/>
+        <v>7.9639349920329061E-2</v>
       </c>
       <c r="F17" s="5">
-        <f>ATAN((b+E17)/(a+d))</f>
-        <v>0.11459843813295978</v>
+        <f t="shared" si="4"/>
+        <v>0.10850251605354987</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="1"/>
-        <v>2.0064923088355197E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.3969001008945284E-2</v>
       </c>
       <c r="H17" s="5">
-        <f>180*G17/PI()</f>
-        <v>1.1496354092173542</v>
+        <f t="shared" si="6"/>
+        <v>0.80036480182655356</v>
       </c>
       <c r="I17" s="5">
-        <f>D17-G17</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.3877787807814457E-17</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9768230577935562E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.8716684019237352E-2</v>
       </c>
       <c r="K17" s="5">
-        <f>2*d*SIN(F17/2)</f>
-        <v>1.9757415176106734E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8707504215967258E-2</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0815401828827981E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.1798032700943222E-4</v>
       </c>
       <c r="M17" s="8">
-        <f>(mu*L*A17^2)/(2*PI()*K17)</f>
-        <v>2.9102997273416898E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.9671250411153405E-4</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="4"/>
-        <v>29.102997273416896</v>
+        <f t="shared" si="12"/>
+        <v>19.671250411153405</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13475653641157234</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0064923088355197E-2</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11446728791879557</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>0.11459843813295978</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="5"/>
+        <v>2.0064923088355197E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1496354092173542</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="8"/>
+        <v>1.9768230577935562E-2</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="9"/>
+        <v>1.9757415176106734E-2</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="11"/>
+        <v>1.0815401828827981E-3</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="10"/>
+        <v>2.9102997273416898E-4</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="12"/>
+        <v>29.102997273416896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>12</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>16.5</v>
       </c>
-      <c r="C18" s="5">
-        <f>ATAN((bp+(B18/100))/(a+d))</f>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
         <v>0.14344744095884185</v>
       </c>
-      <c r="D18" s="5">
-        <f>C18-thp</f>
+      <c r="D19" s="5">
+        <f t="shared" si="2"/>
         <v>2.8755827635624703E-2</v>
       </c>
-      <c r="E18" s="5">
-        <f>(a+d)*TAN(theta+D18)-b</f>
+      <c r="E19" s="5">
+        <f t="shared" si="3"/>
         <v>0.16420641820362714</v>
       </c>
-      <c r="F18" s="5">
-        <f>ATAN((b+E18)/(a+d))</f>
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
         <v>0.12328934268022929</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" si="1"/>
+      <c r="G19" s="8">
+        <f t="shared" si="5"/>
         <v>2.8755827635624703E-2</v>
       </c>
-      <c r="H18" s="5">
-        <f>180*G18/PI()</f>
+      <c r="H19" s="5">
+        <f t="shared" si="6"/>
         <v>1.6475875599269523</v>
       </c>
-      <c r="I18" s="5">
-        <f>D18-G18</f>
+      <c r="I19" s="5">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="2"/>
+      <c r="J19" s="5">
+        <f t="shared" si="8"/>
         <v>2.1267411612339551E-2</v>
       </c>
-      <c r="K18" s="5">
-        <f>2*d*SIN(F18/2)</f>
+      <c r="K19" s="5">
+        <f t="shared" si="9"/>
         <v>2.1253944578501296E-2</v>
       </c>
-      <c r="L18" s="5">
-        <f t="shared" si="3"/>
+      <c r="L19" s="5">
+        <f t="shared" si="11"/>
         <v>1.3467033838254761E-3</v>
       </c>
-      <c r="M18" s="8">
-        <f>(mu*L*A18^2)/(2*PI()*K18)</f>
+      <c r="M19" s="8">
+        <f t="shared" si="10"/>
         <v>3.8957474314557834E-4</v>
       </c>
-      <c r="N18" s="8">
-        <f t="shared" si="4"/>
+      <c r="N19" s="8">
+        <f t="shared" si="12"/>
         <v>38.957474314557835</v>
       </c>
     </row>
